--- a/biology/Médecine/Gérard_Leleu/Gérard_Leleu.xlsx
+++ b/biology/Médecine/Gérard_Leleu/Gérard_Leleu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Leleu</t>
+          <t>Gérard_Leleu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gérard Leleu né le 28 septembre 1932 à Lille, France est un médecin et sexologue français, écrivain et conférencier. Auteur de nombreux  ouvrages sur le couple et le plaisir, il est notamment connu pour son livre à succès : le Traité des caresses. Le livre fut un Best Seller dans plusieurs pays avec plus d'un million d'exemplaires écoulés depuis sa sortie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Leleu</t>
+          <t>Gérard_Leleu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'abord anesthésiste-réanimateur en neurochirurgie pendant plusieurs années dans divers hôpitaux et cliniques, il devient psychothérapeute et sexologue à l'âge de quarante-cinq ans. Il devient célèbre en écrivant le Traité des caresses. Depuis, il enchaîne les titres, les conférences, les spectacles et les débats. Il participe toujours actuellement à des débats sur divers médias.
-Enfance et formation
-Fortement frappé par les horreurs de la Seconde Guerre mondiale, il décidera  de faire des études de médecine, sa vocation première. Il sera alors médecin durant la guerre d'Algérie.
-Psychothérapeute-sexologue
-En 1977, frustré par le manque de contacts humains dans son travail de l'époque, il décide à quarante-cinq ans de se consacrer, en tant que consultant, à diverses formes de psychothérapies : psychologie de la forme (Gestalt), psychanalyse, psychodrame, psychosynthèse, sexologie, sophrologie, etc. puis se spécialise en psychothérapie de couple et organise de nombreuses conférences sur le sujet de l'amour et de la communication dans le couple.  Il a vendu plus d'un million d'exemplaires de son livre Le traité des caresses en 1982.
 </t>
         </is>
       </c>
@@ -528,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Leleu</t>
+          <t>Gérard_Leleu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Publications et spectacles</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Traité des caresses
-« L’art des caresses est infini, comme la sensualité »
-— Gérard Leleu, Le Traité des caresses
-Véritable hymne à la féminité, cet ouvrage de référence a rendu célèbre son auteur puisqu'il est vendu à plus d'un million d'exemplaires depuis 1983. Il est toujours réédité actuellement et demeure le premier ouvrage français du genre. Il est consacré à l'art de dispenser des caresses, celles de la peau divisée en trois zones géographiques érotiques : les trois cercles du plaisir (dont le premier qui peut recevoir la caresse intérieure ou vaginale qui n'est qu'un aboutissement des préliminaires amoureux des deux autres cercles, pour aboutir à l'orgasme.), la redécouverte érotique de son corps ou du corps de l'autre, un peu d'histoire sur l'origine des rapports humains, le point G, etc. Véritable imagier de l'amour-tendresse dans le couple, l'auteur emploie un style d'écriture métaphorique qui lui est propre et rend la lecture attirante. Le livre, véritable étude, se lit alors comme un roman.
-Le Nouveau couple
-Gérard Leleu habitait à Marnac, dans le Périgord, où il organise des stages de préparation ou de réparation de la vie à deux dans le cadre de l’association de type loi 1901 : L’Art-en-ciel. Il y organise aussi un spectacle annuel : La colline espérée, décrivant le couple dans son ensemble, tout au long de l'évolution et à partir de la préhistoire et de l'influence du matriarcat dans ces temps anciens. C'est un cheminement de retrouvailles et de réconciliation entre l'homme et la femme dans leur sexualité renouvelée, débarrassée de l'influence des points négatifs du patriarcat. Selon Gérard Leleu, toutes les religions patriarcales auraient joué un rôle important dans l'inhibition du plaisir sexuel féminin moderne.
+          <t>Enfance et formation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fortement frappé par les horreurs de la Seconde Guerre mondiale, il décidera  de faire des études de médecine, sa vocation première. Il sera alors médecin durant la guerre d'Algérie.
 </t>
         </is>
       </c>
@@ -564,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Leleu</t>
+          <t>Gérard_Leleu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,10 +590,126 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Psychothérapeute-sexologue</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1977, frustré par le manque de contacts humains dans son travail de l'époque, il décide à quarante-cinq ans de se consacrer, en tant que consultant, à diverses formes de psychothérapies : psychologie de la forme (Gestalt), psychanalyse, psychodrame, psychosynthèse, sexologie, sophrologie, etc. puis se spécialise en psychothérapie de couple et organise de nombreuses conférences sur le sujet de l'amour et de la communication dans le couple.  Il a vendu plus d'un million d'exemplaires de son livre Le traité des caresses en 1982.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gérard_Leleu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Leleu</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications et spectacles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le Traité des caresses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« L’art des caresses est infini, comme la sensualité »
+— Gérard Leleu, Le Traité des caresses
+Véritable hymne à la féminité, cet ouvrage de référence a rendu célèbre son auteur puisqu'il est vendu à plus d'un million d'exemplaires depuis 1983. Il est toujours réédité actuellement et demeure le premier ouvrage français du genre. Il est consacré à l'art de dispenser des caresses, celles de la peau divisée en trois zones géographiques érotiques : les trois cercles du plaisir (dont le premier qui peut recevoir la caresse intérieure ou vaginale qui n'est qu'un aboutissement des préliminaires amoureux des deux autres cercles, pour aboutir à l'orgasme.), la redécouverte érotique de son corps ou du corps de l'autre, un peu d'histoire sur l'origine des rapports humains, le point G, etc. Véritable imagier de l'amour-tendresse dans le couple, l'auteur emploie un style d'écriture métaphorique qui lui est propre et rend la lecture attirante. Le livre, véritable étude, se lit alors comme un roman.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gérard_Leleu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Leleu</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications et spectacles</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le Nouveau couple</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gérard Leleu habitait à Marnac, dans le Périgord, où il organise des stages de préparation ou de réparation de la vie à deux dans le cadre de l’association de type loi 1901 : L’Art-en-ciel. Il y organise aussi un spectacle annuel : La colline espérée, décrivant le couple dans son ensemble, tout au long de l'évolution et à partir de la préhistoire et de l'influence du matriarcat dans ces temps anciens. C'est un cheminement de retrouvailles et de réconciliation entre l'homme et la femme dans leur sexualité renouvelée, débarrassée de l'influence des points négatifs du patriarcat. Selon Gérard Leleu, toutes les religions patriarcales auraient joué un rôle important dans l'inhibition du plaisir sexuel féminin moderne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gérard_Leleu</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Leleu</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
